--- a/biology/Botanique/Quercus_trojana/Quercus_trojana.xlsx
+++ b/biology/Botanique/Quercus_trojana/Quercus_trojana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus trojana, appelé communément Chêne de Troie ou Chêne de Macédoine[1], est une espèce européenne et asiatique de chênes de la famille des Fagacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus trojana, appelé communément Chêne de Troie ou Chêne de Macédoine, est une espèce européenne et asiatique de chênes de la famille des Fagacées.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus trojana est un arbre de taille petite à moyenne atteignant 18 m de hauteur. L'écorce est gris-brun, fissurée, les rameaux sont brun vert avec des poils étoilés rares ou absents, puis brun gris ou chamois[1].
-Le feuillage est caduc[2] tardif à semi-persistant. Les feuilles de couleur gris-vert mesurent de 3 à 9 cm de long et de 2 à 5 cm. Elles sont ovales, lancéolées, dentées, ont 6 à 12 paires de dents mucronées, coriaces, à base arrondie, un peu glauques et glabres des deux côtés, ont de 8 à 14 paires de veines latérales et un réseau de veines tertiaires en relief dessous[1].
-Les glands mesurent de 2,7 à 4,5 cm sur 1,8 à 2 cm de diamètre à l'apex tronqué à maturité, environ deux ans après la pollinisation[1], et sont en grande partie enfermés dans le gobelet squameux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus trojana est un arbre de taille petite à moyenne atteignant 18 m de hauteur. L'écorce est gris-brun, fissurée, les rameaux sont brun vert avec des poils étoilés rares ou absents, puis brun gris ou chamois.
+Le feuillage est caduc tardif à semi-persistant. Les feuilles de couleur gris-vert mesurent de 3 à 9 cm de long et de 2 à 5 cm. Elles sont ovales, lancéolées, dentées, ont 6 à 12 paires de dents mucronées, coriaces, à base arrondie, un peu glauques et glabres des deux côtés, ont de 8 à 14 paires de veines latérales et un réseau de veines tertiaires en relief dessous.
+Les glands mesurent de 2,7 à 4,5 cm sur 1,8 à 2 cm de diamètre à l'apex tronqué à maturité, environ deux ans après la pollinisation, et sont en grande partie enfermés dans le gobelet squameux.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus trojana est originaire du sud-est de l'Europe et de l'Asie mineure occidentale, du sud de l'Italie jusqu'à l'ouest de la Turquie en passant par les Balkans[2].
-Il poussant à des altitudes faibles à modérées jusqu'à 1 600 m, dans des zones sèches[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus trojana est originaire du sud-est de l'Europe et de l'Asie mineure occidentale, du sud de l'Italie jusqu'à l'ouest de la Turquie en passant par les Balkans.
+Il poussant à des altitudes faibles à modérées jusqu'à 1 600 m, dans des zones sèches.
 </t>
         </is>
       </c>
@@ -576,14 +592,16 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe les sous-espèces suivantes :
 Q. trojana subsp. euboica : endémique de l'île d'Eubée en Grèce, arbustif.
 Q. trojana subsp. yaltirihii : On ne le trouve que dans le sud-est de la Turquie. Il présente des rameaux pubescents ainsi que des feuilles adultes pubescentes sur les deux faces.
 On peut également trouver parfois le cultivar suivant :
 Q. trojana 'Fragno' : il résente des feuilles légèrement concaves, aux dents plus grandes et nettement acuminées.
-Q. trojana 'Podgorica' : il est une sélection belge réalisée par André Charlier[2].</t>
+Q. trojana 'Podgorica' : il est une sélection belge réalisée par André Charlier.</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Fossile</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On décrit des fossiles de Quercus trojana dans la flore fossile du district de Kızılcahamam, en Turquie, datant du Pliocène.
 </t>
@@ -642,9 +662,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus trojana est une plante hôte des chenilles de Phyllonorycter trojana[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus trojana est une plante hôte des chenilles de Phyllonorycter trojana.
 </t>
         </is>
       </c>
